--- a/Frogger_TestCase.xlsx
+++ b/Frogger_TestCase.xlsx
@@ -3037,7 +3037,7 @@
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="8">
-        <v>94.0</v>
+        <v>88.0</v>
       </c>
       <c r="D16" s="7">
         <v>80.0</v>
@@ -4082,6 +4082,12 @@
     <mergeCell ref="F34:F35"/>
     <mergeCell ref="G34:G35"/>
     <mergeCell ref="H34:H35"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="C36:E36"/>
@@ -4089,12 +4095,6 @@
     <mergeCell ref="C38:E38"/>
     <mergeCell ref="C39:E39"/>
     <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -13625,6 +13625,13 @@
     <mergeCell ref="F34:F35"/>
     <mergeCell ref="G34:G35"/>
     <mergeCell ref="H34:H35"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="C36:E36"/>
@@ -13632,13 +13639,6 @@
     <mergeCell ref="C38:E38"/>
     <mergeCell ref="C39:E39"/>
     <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
